--- a/biology/Médecine/Maladie_de_Hoffa/Maladie_de_Hoffa.xlsx
+++ b/biology/Médecine/Maladie_de_Hoffa/Maladie_de_Hoffa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Hoffa, ou hoffite, est une inflammation du coussinet adipeux de Hoffa causée par son écrasement lors de l'extension de la jambe. Elle a été découverte par le chirurgien orthopédique allemand Albert Hoffa en 1904[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Hoffa, ou hoffite, est une inflammation du coussinet adipeux de Hoffa causée par son écrasement lors de l'extension de la jambe. Elle a été découverte par le chirurgien orthopédique allemand Albert Hoffa en 1904,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle touche le plus souvent les jeunes femmes. La maladie de Hoffa est plus présente chez les pratiquants de sports de saut tels le volley-ball ou le basket-ball que chez le reste de la population.
-La physiopathologie de la maladie de Hoffa est mal comprise. Des traumatismes aigus ou des micro-traumatismes à la suite d'une sollicitation répétée de la région engendreraient des phénomènes inflammatoires, hémorragiques ou fibreux du coussinet adipeux de Hoffa. Dans les cas sévères, il peut y avoir formation de fibrocartilage ou d'ossification secondaire au sein de la graisse[2],[3].
+La physiopathologie de la maladie de Hoffa est mal comprise. Des traumatismes aigus ou des micro-traumatismes à la suite d'une sollicitation répétée de la région engendreraient des phénomènes inflammatoires, hémorragiques ou fibreux du coussinet adipeux de Hoffa. Dans les cas sévères, il peut y avoir formation de fibrocartilage ou d'ossification secondaire au sein de la graisse,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes de la maladie de Hoffa s'apparentent à ceux du syndrome fémoro-patellaire, c'est-à-dire une douleur à l'avant du genou surtout lors de la montée ou de la descente des escaliers[4].
-À l'examen clinique, le genou peut avoir une amplitude de flexion diminuée ou un épanchement articulaire léger ou modéré. Le test de Hoffa s'effectue en décubitus dorsal avec les genoux fléchis à 90 degrés. Il consiste à éliciter une douleur à la palpation des rebords latéral et médial du tendon patellaire lors de l'extension du genou[3].
-Le diagnostic différentiel de la maladie de Hoffa inclut le syndrome fémoro-patellaire ou le syndrome du cyclope (après une reconstruction du ligament croisé antérieur)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes de la maladie de Hoffa s'apparentent à ceux du syndrome fémoro-patellaire, c'est-à-dire une douleur à l'avant du genou surtout lors de la montée ou de la descente des escaliers.
+À l'examen clinique, le genou peut avoir une amplitude de flexion diminuée ou un épanchement articulaire léger ou modéré. Le test de Hoffa s'effectue en décubitus dorsal avec les genoux fléchis à 90 degrés. Il consiste à éliciter une douleur à la palpation des rebords latéral et médial du tendon patellaire lors de l'extension du genou.
+Le diagnostic différentiel de la maladie de Hoffa inclut le syndrome fémoro-patellaire ou le syndrome du cyclope (après une reconstruction du ligament croisé antérieur).
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Imagerie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les cas sévères, la radiographie peut démontrer une ossification au sein de la graisse[3].
-L'échographie peut montrer un œdème au niveau de la graisse, ou des cicatrices fibreuses[5].
-L'IRM est l'examen de choix pour observer la graisse de Hoffa. Dans la maladie de Hoffa, elle sera hypertrophiée avec présence d'œdème en hypersignal T2 et hyposignal T1[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les cas sévères, la radiographie peut démontrer une ossification au sein de la graisse.
+L'échographie peut montrer un œdème au niveau de la graisse, ou des cicatrices fibreuses.
+L'IRM est l'examen de choix pour observer la graisse de Hoffa. Dans la maladie de Hoffa, elle sera hypertrophiée avec présence d'œdème en hypersignal T2 et hyposignal T1.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement de la maladie de Hoffa est généralement conservateur et similaire à celui du syndrome fémoro-patellaire. Il inclut de la kinésithérapie. Des anti-inflammatoires oraux peuvent être utilisés. Dans les cas récalcitrants ou chroniques, le débridement par arthroscopie peut être envisagé[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement de la maladie de Hoffa est généralement conservateur et similaire à celui du syndrome fémoro-patellaire. Il inclut de la kinésithérapie. Des anti-inflammatoires oraux peuvent être utilisés. Dans les cas récalcitrants ou chroniques, le débridement par arthroscopie peut être envisagé.
 </t>
         </is>
       </c>
